--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -1,48 +1,504 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28128" windowHeight="12660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zcy" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>zcy-1</t>
+  </si>
+  <si>
+    <t>有对应数据的产业链名称搜索</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E9%AB%98%E7%AB%AF%E5%88%B6%E9%80%A0</t>
+  </si>
+  <si>
+    <t>{"platform":"pc","system":"window","code":""}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:32:21,508 - test_industry.py[line:27] - INFO - zcy-1有对应数据的产业链名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 2, 'docs': [{'highlight': {'chainName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'chain', 'id': '114', 'label': '高端装备制造', 'labelTypeName': '产业链名称匹配'}, {'nodeName': '高端装备制造行业工业互联网平台', 'highlight': {'nodeName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;行业工业互联网平台'}}, 'chainName': '工业互联网', 'labelType': 'node', 'id': '115020205', 'label': '高端装备制造行业工业互联网平台(工业互联网)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>zcy-2</t>
+  </si>
+  <si>
+    <t>有对应数据的产业节点名称搜索</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E8%88%AA%E7%A9%BA%E8%A3%85%E5%A4%87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:32:21,779 - test_industry.py[line:27] - INFO - zcy-2有对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 3, 'docs': [{'nodeName': '航空装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '11402', 'label': '航空装备(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空装备相关服务', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;相关服务'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '1140203', 'label': '航空装备相关服务(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空航天装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;航&lt;/em&gt;天&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '智能制造', 'labelType': 'node', 'id': '1600401', 'label': '航空航天装备(智能制造)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+  <si>
+    <t>zcy-3</t>
+  </si>
+  <si>
+    <t>无对应数据的产业节点名称搜索</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:32:22,038 - test_industry.py[line:27] - INFO - zcy-3无对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 0, 'docs': None, 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+  <si>
+    <t>zcy-4</t>
+  </si>
+  <si>
+    <t>zcy-5</t>
+  </si>
+  <si>
+    <t>zcy-6</t>
+  </si>
+  <si>
+    <t>zcy-7</t>
+  </si>
+  <si>
+    <t>zcy-8</t>
+  </si>
+  <si>
+    <t>zcy-9</t>
+  </si>
+  <si>
+    <t>zcy-10</t>
+  </si>
+  <si>
+    <t>zcy-11</t>
+  </si>
+  <si>
+    <t>zcy-12</t>
+  </si>
+  <si>
+    <t>zcy-13</t>
+  </si>
+  <si>
+    <t>zcy-14</t>
+  </si>
+  <si>
+    <t>zcy-15</t>
+  </si>
+  <si>
+    <t>zcy-16</t>
+  </si>
+  <si>
+    <t>zcy-17</t>
+  </si>
+  <si>
+    <t>zcy-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:22:42,988 - test_industry.py[line:27] - INFO - zcy-1有对应数据的产业链名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 2, 'docs': [{'highlight': {'chainName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'chain', 'id': '114', 'label': '高端装备制造', 'labelTypeName': '产业链名称匹配'}, {'nodeName': '高端装备制造行业工业互联网平台', 'highlight': {'nodeName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;行业工业互联网平台'}}, 'chainName': '工业互联网', 'labelType': 'node', 'id': '115020205', 'label': '高端装备制造行业工业互联网平台(工业互联网)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:22:43,246 - test_industry.py[line:27] - INFO - zcy-2有对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 3, 'docs': [{'nodeName': '航空装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '11402', 'label': '航空装备(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空装备相关服务', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;相关服务'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '1140203', 'label': '航空装备相关服务(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空航天装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;航&lt;/em&gt;天&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '智能制造', 'labelType': 'node', 'id': '1600401', 'label': '航空航天装备(智能制造)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-17 11:22:43,502 - test_industry.py[line:27] - INFO - zcy-3无对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 0, 'docs': None, 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +506,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1113,244 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="118.111111111111" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" customHeight="1" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="57.6" customHeight="1" spans="1:7">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E9%AB%98%E7%AB%AF%E5%88%B6%E9%80%A0"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E8%88%AA%E7%A9%BA%E8%A3%85%E5%A4%87"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa" tooltip="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="F2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="2" spans="6:6">
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6">
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/case.xlsx
+++ b/config/case.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="zcy" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="zcysearch" sheetId="1" r:id="rId1"/>
+    <sheet name="zcyjc" sheetId="2" r:id="rId2"/>
+    <sheet name="deletejc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>number</t>
   </si>
@@ -51,10 +51,6 @@
     <t>{"platform":"pc","system":"window","code":""}</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-17 11:32:21,508 - test_industry.py[line:27] - INFO - zcy-1有对应数据的产业链名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 2, 'docs': [{'highlight': {'chainName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'chain', 'id': '114', 'label': '高端装备制造', 'labelTypeName': '产业链名称匹配'}, {'nodeName': '高端装备制造行业工业互联网平台', 'highlight': {'nodeName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;行业工业互联网平台'}}, 'chainName': '工业互联网', 'labelType': 'node', 'id': '115020205', 'label': '高端装备制造行业工业互联网平台(工业互联网)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -67,10 +63,6 @@
     <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E8%88%AA%E7%A9%BA%E8%A3%85%E5%A4%87</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-17 11:32:21,779 - test_industry.py[line:27] - INFO - zcy-2有对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 3, 'docs': [{'nodeName': '航空装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '11402', 'label': '航空装备(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空装备相关服务', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;相关服务'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '1140203', 'label': '航空装备相关服务(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空航天装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;航&lt;/em&gt;天&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '智能制造', 'labelType': 'node', 'id': '1600401', 'label': '航空航天装备(智能制造)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
-  </si>
-  <si>
     <t>zcy-3</t>
   </si>
   <si>
@@ -80,65 +72,82 @@
     <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-17 11:32:22,038 - test_industry.py[line:27] - INFO - zcy-3无对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 0, 'docs': None, 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
-  </si>
-  <si>
     <t>zcy-4</t>
   </si>
   <si>
+    <t>一级产业领域筛选功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainPageList</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"page":0,"pageSize":24,"industryClass":"LXA","keyWord":"","sort":""}</t>
+  </si>
+  <si>
     <t>zcy-5</t>
   </si>
   <si>
+    <t>二级产业领域筛选功能</t>
+  </si>
+  <si>
+    <t>{"page":0,"pageSize":24,"industryClass":"LXA01","keyWord":"","sort":""}</t>
+  </si>
+  <si>
     <t>zcy-6</t>
   </si>
   <si>
+    <t>研报页查看功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-research-report</t>
+  </si>
+  <si>
+    <t>{"code":"CL0017","industryChainId":"114","keyWord":"","pubDt":"","page":1,"pageSize":20,"clientInfoDTO":{"platform":"pc","system":"window"}}</t>
+  </si>
+  <si>
     <t>zcy-7</t>
   </si>
   <si>
+    <t>专利页查看功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-ip-patent</t>
+  </si>
+  <si>
+    <t>{"code":"CL0016","industryChainId":"114","keyWord":"","appDt":"","pubDt":"","endDate":"2023-07-17","page":1,"pageSize":20,"clientInfoDTO":{"platform":"pc","system":"window"}}</t>
+  </si>
+  <si>
     <t>zcy-8</t>
   </si>
   <si>
-    <t>zcy-9</t>
-  </si>
-  <si>
-    <t>zcy-10</t>
-  </si>
-  <si>
-    <t>zcy-11</t>
-  </si>
-  <si>
-    <t>zcy-12</t>
-  </si>
-  <si>
-    <t>zcy-13</t>
-  </si>
-  <si>
-    <t>zcy-14</t>
-  </si>
-  <si>
-    <t>zcy-15</t>
-  </si>
-  <si>
-    <t>zcy-16</t>
-  </si>
-  <si>
-    <t>zcy-17</t>
-  </si>
-  <si>
-    <t>zcy-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-17 11:22:42,988 - test_industry.py[line:27] - INFO - zcy-1有对应数据的产业链名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 2, 'docs': [{'highlight': {'chainName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'chain', 'id': '114', 'label': '高端装备制造', 'labelTypeName': '产业链名称匹配'}, {'nodeName': '高端装备制造行业工业互联网平台', 'highlight': {'nodeName': {'text': '&lt;em&gt;高&lt;/em&gt;&lt;em&gt;端&lt;/em&gt;装备&lt;em&gt;制&lt;/em&gt;&lt;em&gt;造&lt;/em&gt;行业工业互联网平台'}}, 'chainName': '工业互联网', 'labelType': 'node', 'id': '115020205', 'label': '高端装备制造行业工业互联网平台(工业互联网)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-17 11:22:43,246 - test_industry.py[line:27] - INFO - zcy-2有对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 3, 'docs': [{'nodeName': '航空装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '11402', 'label': '航空装备(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空装备相关服务', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;相关服务'}}, 'chainName': '高端装备制造', 'labelType': 'node', 'id': '1140203', 'label': '航空装备相关服务(高端装备制造)', 'labelTypeName': '产业链节点匹配'}, {'nodeName': '航空航天装备', 'highlight': {'nodeName': {'text': '&lt;em&gt;航&lt;/em&gt;&lt;em&gt;空&lt;/em&gt;&lt;em&gt;航&lt;/em&gt;天&lt;em&gt;装&lt;/em&gt;&lt;em&gt;备&lt;/em&gt;'}}, 'chainName': '智能制造', 'labelType': 'node', 'id': '1600401', 'label': '航空航天装备(智能制造)', 'labelTypeName': '产业链节点匹配'}], 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-17 11:22:43,502 - test_industry.py[line:27] - INFO - zcy-3无对应数据的产业节点名称搜索{'code': 200, 'body': {'code': 200, 'success': True, 'data': {'total': 0, 'docs': None, 'gatewayParam': None, 'operateWord': None, 'aggregations': None}, 'msg': '操作成功'}, 'cookies': {}},
-</t>
+    <t>政策查看功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-policy</t>
+  </si>
+  <si>
+    <t>{"code":"CL0018","industryChainId":"114","keyWord":"","pubDt":"","endDate":"2023-07-17","page":1,"pageSize":20,"clientInfoDTO":{"platform":"pc","system":"window"}}</t>
+  </si>
+  <si>
+    <t>jc-1</t>
+  </si>
+  <si>
+    <t>已登录用户监测功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-system/monitor/save</t>
+  </si>
+  <si>
+    <t>{"businessType":10,"monitorNames":["高端装备制造"],"monitorIds":["114"]}</t>
+  </si>
+  <si>
+    <t>jc-2</t>
+  </si>
+  <si>
+    <t>删除已监测产业链功能</t>
+  </si>
+  <si>
+    <t>https://chaolian-base-web.lingxitest.com/api/lingxi-system/monitor/remove?ids=</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +177,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -191,14 +219,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -624,19 +644,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -648,13 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -663,104 +677,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -768,7 +784,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,20 +1142,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="33.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.8888888888889" style="1" customWidth="1"/>
-    <col min="6" max="6" width="118.111111111111" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.2222222222222" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.3333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" style="3" customWidth="1"/>
+    <col min="6" max="6" width="118.111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1151,7 +1174,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1165,132 +1188,138 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" ht="57.6" customHeight="1" spans="1:7">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="57.6" customHeight="1" spans="1:7">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" customHeight="1" spans="1:7">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+    <row r="6" ht="43.2" customHeight="1" spans="1:7">
       <c r="A6" t="s">
         <v>22</v>
       </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" ht="86.4" customHeight="1" spans="1:7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="115.2" customHeight="1" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" ht="72" customHeight="1" spans="1:7">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1327,11 @@
     <hyperlink ref="C2" r:id="rId1" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E9%AB%98%E7%AB%AF%E5%88%B6%E9%80%A0"/>
     <hyperlink ref="C3" r:id="rId2" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=%E8%88%AA%E7%A9%BA%E8%A3%85%E5%A4%87"/>
     <hyperlink ref="C4" r:id="rId3" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa" tooltip="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainByKeywords?keyword=adbsa"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainPageList"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://chaolian-base-web.lingxitest.com/api/lingxi-chain/cloudentchain/getInduChainPageList"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-research-report"/>
+    <hyperlink ref="C8" r:id="rId6" display="https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-ip-patent"/>
+    <hyperlink ref="C9" r:id="rId7" display="https://chaolian-base-web.lingxitest.com/api/lingxi-algorithm/list-policy"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1308,28 +1342,64 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="F2:F4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4444444444444" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="6:6">
-      <c r="F2" t="s">
-        <v>36</v>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="6:6">
-      <c r="F3" t="s">
+    <row r="2" ht="36" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
         <v>37</v>
       </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="6:6">
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
+    <row r="3" ht="43.2" customHeight="1" spans="3:7">
+      <c r="C3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,14 +1411,56 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" customHeight="1" spans="1:7">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://chaolian-base-web.lingxitest.com/api/lingxi-system/monitor/remove?ids=" tooltip="https://chaolian-base-web.lingxitest.com/api/lingxi-system/monitor/remove?ids="/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
